--- a/biology/Botanique/Prince_Albert_de_Prusse/Prince_Albert_de_Prusse.xlsx
+++ b/biology/Botanique/Prince_Albert_de_Prusse/Prince_Albert_de_Prusse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prince Albert de Prusse est le nom d'un cultivar de pommier domestique et par extension celui de sa pomme.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prince Albert,
 Prinz Albrecht Von Preussen.</t>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kamenz, Silésie, Allemagne, vers 1865. Probablement un semis de Grand Alexandre.
 </t>
@@ -573,12 +589,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Usage: à cuire, à jus, à cidre
 Calibre: moyen
 Peau: très rouge à maturité
-Chair: semi-ferme[1], aigre-douce, très aromatique</t>
+Chair: semi-ferme, aigre-douce, très aromatique</t>
         </is>
       </c>
     </row>
@@ -606,10 +624,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde, autostérile, ("bon pollen")
-Groupe de floraison: - C[2]. - D[3].</t>
+Groupe de floraison: - C. - D.</t>
         </is>
       </c>
     </row>
@@ -637,7 +657,9 @@
           <t>Susceptibilités et résistances aux maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>tavelure: sensible
 Mildiou: sensible</t>
@@ -668,7 +690,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cueillette: mi-septembre
 Consommation: jusque décembre au moins
